--- a/src/main/resources/Team Capacity-2022-sample.xlsx
+++ b/src/main/resources/Team Capacity-2022-sample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hoah\Desktop\jira\Ex1\src\main\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huy\elca\Ex1\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03B3BF5-4F43-4072-8E1F-B8BFD632EFEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8537DD-29D5-48F3-96ED-75765AEE991F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3705" yWindow="4365" windowWidth="21600" windowHeight="11385" xr2:uid="{5FB2F031-2DC3-4F01-B99A-0C5F74ECF030}"/>
+    <workbookView xWindow="2730" yWindow="2520" windowWidth="21600" windowHeight="13680" xr2:uid="{5FB2F031-2DC3-4F01-B99A-0C5F74ECF030}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,10 +62,10 @@
     <t>DEF</t>
   </si>
   <si>
-    <t>PLM</t>
-  </si>
-  <si>
-    <t>HPT</t>
+    <t>DE1</t>
+  </si>
+  <si>
+    <t>XY1</t>
   </si>
 </sst>
 </file>
@@ -437,7 +437,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,6 +567,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -575,7 +581,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100182A0FD1201485479895ED3ABF5F8B85" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9bb0b9dd5eed30345763edaeb969e930">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="7b495183-be68-46b6-9f93-303bb4369acc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="424cb47d1cc6c82415f71c1929eaa6e4" ns3:_="">
     <xsd:import namespace="7b495183-be68-46b6-9f93-303bb4369acc"/>
@@ -759,13 +765,23 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFD4DB0A-E2EC-4132-9C78-BB3A4EA829D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="7b495183-be68-46b6-9f93-303bb4369acc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B47FB61C-7E50-4828-B697-8741CE929532}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -773,7 +789,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7219784-B903-4C1D-995C-141820D9F17E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -789,20 +805,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFD4DB0A-E2EC-4132-9C78-BB3A4EA829D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="7b495183-be68-46b6-9f93-303bb4369acc"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>